--- a/Books.xlsx
+++ b/Books.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Temp\radaro\ontology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\OuYuanchang\destop\单位工作\国防社\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="雷达原理" sheetId="2" r:id="rId1"/>
     <sheet name="机载雷达手册" sheetId="1" r:id="rId2"/>
     <sheet name="雷达与探测" sheetId="3" r:id="rId3"/>
-    <sheet name="雷达实验" sheetId="4" r:id="rId4"/>
+    <sheet name="雷达试验" sheetId="4" r:id="rId4"/>
     <sheet name="全集" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="490">
   <si>
     <t>机载雷达</t>
   </si>
@@ -1467,6 +1467,462 @@
   </si>
   <si>
     <t>分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达试验任务</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务来源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验目的</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态技术参数检测</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天馈系统（天线分系统，馈线分系统）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>馈线驻波系数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线方向图</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线增益</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射功率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射频率</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频脉冲包络</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频脉冲频谱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收机灵敏度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收机噪声系数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收机恢复时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号处理分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天线控制同步分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向互导</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质因素</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幅频特性</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测和控制分系统</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光电轴匹配</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸元校准与标定</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态精度试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验技术参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验数据测量点数目</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据录取采样间隔时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据处理分组间隔时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航路高度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航路长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航路捷径</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须有效航次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行航次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行架次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量精度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪精度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>制导精度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>校射精度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态威力试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大作用距离试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大跟踪距离试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对空情报雷达探测范围试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>校射范围试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现距离试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验技术参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离区间内观测点数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达扇扫范围和周期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离区间长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航路长度</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>航路方向</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效航次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨力试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁环境适应能力试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗干扰能力试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗有源干扰试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>内场试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐射式仿真</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注入式仿真</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机仿真</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>外场试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外模拟试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场外动态飞行式样</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗无源干扰试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗地杂波试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗箔条干扰试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性及可靠性试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配套设备试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验性质</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计定型试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产定型试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研摸底试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验原理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测法试验原理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟法试验原理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械模拟试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子模拟试验</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验条件</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场区</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地理位置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形和地域</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标和机场</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候环境</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备和设施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准测量设备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据录取及处理设备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配试设备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验保障设备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪器和仪表</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验设施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验技术</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达技术</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率论与数理统计知识</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机及其模拟仿真技术</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达对抗和其他有关知识</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达干扰分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>积极干扰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>按干扰作用分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号样式分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰在频率上的不同引导方式分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>消极干扰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>干扰箔条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>反雷达伪装</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>假目标或雷达诱饵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达抗干扰分类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战术扛干扰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术扛干扰</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2391,132 +2847,132 @@
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>64</v>
       </c>
@@ -2524,577 +2980,577 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G44" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G47" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G48" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="G52" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>111</v>
       </c>
@@ -3114,9 +3570,9 @@
       <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3124,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3132,7 +3588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -3148,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3159,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3167,7 +3623,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -3181,7 +3637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
       </c>
@@ -3197,12 +3653,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -3210,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>20</v>
       </c>
@@ -3218,7 +3674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -3229,7 +3685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -3237,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -3245,7 +3701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -3253,7 +3709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>30</v>
       </c>
@@ -3261,12 +3717,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -3277,22 +3733,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -3311,7 +3767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -3319,12 +3775,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>46</v>
       </c>
@@ -3332,27 +3788,27 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>52</v>
       </c>
@@ -3360,27 +3816,27 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>58</v>
       </c>
@@ -3399,349 +3855,349 @@
       <selection activeCell="C114" sqref="C114:H171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>293</v>
       </c>
@@ -3749,512 +4205,512 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F119" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F120" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F121" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F122" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>226</v>
       </c>
@@ -4268,12 +4724,600 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection sqref="A1:H123"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4283,663 +5327,663 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F44" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F46" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F47" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F48" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F49" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F51" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F52" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F53" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F55" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F116" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H120" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
       <c r="H121" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E122" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F123" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F124" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F125" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F127" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F128" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E129" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F130" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>64</v>
       </c>
@@ -4947,432 +5991,432 @@
         <v>183</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F134" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G135" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G136" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F137" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F138" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G139" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G140" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F141" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G142" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
       <c r="G143" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
       <c r="F144" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G145" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G146" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F147" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="148" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G148" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G149" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="150" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G150" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="151" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="152" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F152" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="153" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G153" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G154" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="155" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F155" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="156" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G156" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="157" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G157" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:7" x14ac:dyDescent="0.3">
       <c r="G158" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F159" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="160" spans="5:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:7" x14ac:dyDescent="0.3">
       <c r="F160" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F161" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F162" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F163" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F164" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D193" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D196" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D197" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D198" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D200" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D202" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D203" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D204" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D207" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D208" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D213" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D214" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D215" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>226</v>
       </c>
